--- a/medicine/Enfance/Les_Énigmes_de_Futékati/Les_Énigmes_de_Futékati.xlsx
+++ b/medicine/Enfance/Les_Énigmes_de_Futékati/Les_Énigmes_de_Futékati.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_%C3%89nigmes_de_Fut%C3%A9kati</t>
+          <t>Les_Énigmes_de_Futékati</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Énigmes de Futékati est une série de courts récits écrits par Béatrice Nicodème pour un public de jeunes lecteurs. Chaque histoire se termine par une petite énigme faisant appel à la logique et aux facultés de déduction du lecteur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_%C3%89nigmes_de_Fut%C3%A9kati</t>
+          <t>Les_Énigmes_de_Futékati</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_%C3%89nigmes_de_Fut%C3%A9kati</t>
+          <t>Les_Énigmes_de_Futékati</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,8 +554,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parus chez Hachette Jeunesse dans la collection "Bibliothèque rose"
-Les illustrations sont signées François San Millan.
+          <t>Parus chez Hachette Jeunesse dans la collection "Bibliothèque rose"</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les illustrations sont signées François San Millan.
 1 : Futékati et le Concours de natation (1998, 2000). (Le Concours de natation - L'Anniversaire de Niko - Le Voyage de Célia - On a volé le magnétophone)
 2 : Futékati et le Voleur du musée (1998, 2000). (Maman chante... et gagne - Le Contrôle de poésie - Vol au musée Grévin - Mme Lambert est une sorcière)
 3 : Le secret de Futékati (1998, 1999). (L'Orgueilleux M. Tralalère - Mme Couci-Couça a des ennuis - Le Secret de Futékati - Les Farfulettes)
@@ -556,14 +575,82 @@
 12 : Futékati et la Lettre-surprise (2004). (La Lettre-surprise - La Poisson rouge de Niko - Manque de chance ! - Niko est dans la lune)
 13 : Futékati et l'extraordinaire Niko Cacao (2004). (L'Extraordinaire Niko Cacao - Célia prend la mouche - Niko a eu chaud ! - Mlle Paprika perd la boule)
 14 : Futekati et l'Anniversaire de Jokari (2005). (L'Anniversaire de Jokari - Le Mystérieux Coup de téléphone - Rémi va en Angleterre - Le Dessin de Niko)
-15 : Futékati et la Dictée de Mlle Paprika (2006). (La Dictée de Mlle Paprika - Le Carreau cassé - Le Portefeuille de maman - Les Petites Boules rouges)
-Rééditions au Livre de Poche Jeunesse
-1 : Un fantôme à la fenêtre (2008)
+15 : Futékati et la Dictée de Mlle Paprika (2006). (La Dictée de Mlle Paprika - Le Carreau cassé - Le Portefeuille de maman - Les Petites Boules rouges)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Énigmes_de_Futékati</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_%C3%89nigmes_de_Fut%C3%A9kati</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rééditions au Livre de Poche Jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1 : Un fantôme à la fenêtre (2008)
 2 : Le Concours de natation (2008)
 3 : Le Secret (2008)
-4 : Le Voleur du musée (2008)
-Compilation parue chez France Loisirs
-3 aventures de Futékati (2000)</t>
+4 : Le Voleur du musée (2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Énigmes_de_Futékati</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_%C3%89nigmes_de_Fut%C3%A9kati</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Compilation parue chez France Loisirs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 aventures de Futékati (2000)</t>
         </is>
       </c>
     </row>
